--- a/biology/Zoologie/Brangus/Brangus.xlsx
+++ b/biology/Zoologie/Brangus/Brangus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La race Brangus est une race bovine américaine. Le nom provient de la contraction de brahmane et angus.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un hybride de bœuf européen, Bos taurus, et de zébu, Bos taurus indicus. Cette race a été créée sur une station de recherche en Louisiane à partir de 1932. Il a été décidé de croiser les brahmanes aux qualités reconnues de résistance aux maladies tropicales et à la chaleur avec l'angus, race hautement productive et à la qualité de viande reconnue. En parallèle de nombreux éleveurs ont tenté le même croisement dans plus de 16 États des États-Unis et du Canada. Leur travail a été regroupé en 1949 lors de la création de l'ABBA, American Brangus Breeders Association. La race était née et avait un pedigree. Il est inchangé depuis et comprend autour de 3/8 de brahmane et 5/8 d'angus.
 La race a essaimé dans tous les États du Littoral du Golfe du Mexique puis dans de nombreux pays à climat tropical humide.
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte une robe uniforme noire (black brangus) ou rouge (red brangus) en fonction de l'origine des angus (black ou red). Ils ne portent pas de cornes. Leur allure emprunte peu à l'esthétique des zébus: pas de bosse, ni de cornes, juste une peau plus lâche que celle des bovins européens.   
 </t>
@@ -575,7 +591,9 @@
           <t>Aptitude</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il n'a été créé que pour sa valeur bouchère. Les qualités reconnues du brangus sont :
 bonnes qualités maternelles: fertilité, précocité, facilité de vêlage et bonne lactation ;
